--- a/data/Sample.xlsx
+++ b/data/Sample.xlsx
@@ -2,13 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileSharing readOnlyRecommended="1"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kjiwa\PycharmProjects\ee454-power-system-analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D40A86-D9D7-4DC2-A5BF-1C6732C1FB8A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12DB6BE7-CF4C-43AF-918F-30D131E1E1B1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9465" xr2:uid="{2B545D68-2FCD-4260-92A8-98051445AAA1}"/>
   </bookViews>
